--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2C357D5-8C7B-44EA-ADCE-FB64BC032650}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A76533E2-04AA-4D23-A835-3D815FEA7C5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="9675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>Feature</t>
   </si>
@@ -472,6 +472,43 @@
   </si>
   <si>
     <t>Initiate UIN Update - Address</t>
+  </si>
+  <si>
+    <t>clarifications needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. what is the use case of locking specific Biometric auths and combinations?
+2. What is the data taken as input from the Individual?
+3. Is there a mechanism to lock OTP Authentication?
+4. need more clarity on a2
+5. Can Lock/Unlock will be perfomed only by OTP authentication of Mobile number or can it be done by email as well?
+6. Need to check with IDA on the process of authentication done, so that the gaps could be covered
+</t>
+  </si>
+  <si>
+    <t>1. What is the use case of reprinting? Will there be a cost associated to it? If not can it be abused by the individual?will there be a limit on number times an individual can access it? If cost is associated, will there be a check performed for the payment?
+2. Why RID is accepted as an input parameter? What is the use case.</t>
+  </si>
+  <si>
+    <t>1. if demo auth is locked? What happens?
+2. what is use case of providing a RID PDF, why not just a RID number?
+3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
+  </si>
+  <si>
+    <t>1. Is this requirement still part of Resident services?
+2. if demo auth is locked? What happens?
+3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Is this requirement a subset of what registration client does for update? If so can there be an reuse of the feature?
+2. in future if there can be many parameters which can be provisioned for updated? What can be done and is Resident services capable of doing for all? check for scalability?
+</t>
+  </si>
+  <si>
+    <t>1.what is security code?</t>
+  </si>
+  <si>
+    <t>1. why is RID an input here and not UIN?</t>
   </si>
 </sst>
 </file>
@@ -847,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -958,6 +995,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -967,20 +1013,31 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1527,44 +1584,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:M13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <autoFilter ref="A2:M13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:N13" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <autoFilter ref="A2:N13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="clarifications needed" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A2:M5" xr:uid="{BAEF4897-0E77-4DB8-9DBC-4FCFFE073206}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1839,22 +1897,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4"/>
-    <col min="2" max="2" width="78.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="78.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:3" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -1862,61 +1920,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1924,7 +1982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1932,7 +1990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
@@ -1948,50 +2006,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:L1"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="13.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="31"/>
+    <col min="2" max="2" width="13.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" style="37" customWidth="1"/>
     <col min="5" max="5" width="25" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="65.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="61.81640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="65.81640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="17" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="17" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="64.28515625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="18.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="64.26953125" style="17" customWidth="1"/>
     <col min="13" max="13" width="12" style="17" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="17"/>
+    <col min="14" max="14" width="48.54296875" style="17" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:14" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-    </row>
-    <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>68</v>
       </c>
@@ -2031,8 +2090,11 @@
       <c r="M2" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="N2" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -2056,8 +2118,11 @@
         <v>37</v>
       </c>
       <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="N3" s="44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -2079,8 +2144,11 @@
       <c r="K4" s="16"/>
       <c r="L4" s="24"/>
       <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="N4" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -2104,8 +2172,11 @@
         <v>65</v>
       </c>
       <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="N5" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -2129,8 +2200,11 @@
         <v>65</v>
       </c>
       <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -2152,8 +2226,11 @@
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="N7" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -2175,8 +2252,11 @@
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="N8" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -2204,8 +2284,11 @@
         <v>35</v>
       </c>
       <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="N9" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -2227,8 +2310,9 @@
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
       <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -2252,8 +2336,9 @@
         <v>38</v>
       </c>
       <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>10</v>
       </c>
@@ -2275,8 +2360,9 @@
         <v>63</v>
       </c>
       <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>11</v>
       </c>
@@ -2298,6 +2384,7 @@
         <v>61</v>
       </c>
       <c r="M13" s="19"/>
+      <c r="N13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2319,44 +2406,44 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:L1"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="13.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="65.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="64.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="31"/>
+    <col min="2" max="2" width="13.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="61.81640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="65.81640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="64.26953125" style="17" customWidth="1"/>
     <col min="13" max="13" width="12" style="17" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="17"/>
+    <col min="14" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-    </row>
-    <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>68</v>
       </c>
@@ -2397,7 +2484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="254.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -2426,8 +2513,8 @@
       </c>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:13" s="43" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+    <row r="4" spans="1:13" s="40" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
       <c r="B4" s="25"/>
@@ -2451,9 +2538,9 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="42"/>
-    </row>
-    <row r="5" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -2493,12 +2580,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2709,35 +2813,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2762,18 +2858,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D08D247-E393-4A7C-9D04-07018BF241FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74E7A1AA-AE65-4F94-A5A2-9EE575F0B308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
+    <sheet name="VID" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Feature</t>
   </si>
@@ -66,9 +67,6 @@
   </si>
   <si>
     <t>Lock/Unlock Biometric Auth/Other Auth</t>
-  </si>
-  <si>
-    <t>Sr No.</t>
   </si>
   <si>
     <t>Components</t>
@@ -251,52 +249,10 @@
 5. Receive the Static PIN and store against the provided UIN</t>
   </si>
   <si>
-    <r>
-      <t>1. Input:  UIN/VID and Security Code
-2. Authenticate the User with Phone Number/OTP Authentication
-3. Process:
-a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> If OTP authentication is successful and UIN found,
-- Present the option to enter old PIN and new PIN 
-- Receive old and new PIN 
-- If old PIN matches and new PIN matches the policy (Refer PIN creation rules) &gt; Confirm Update and trigger notification. Also, store new PIN against the provided UIN
-- If old PIN does not match, trigger error message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-b. If UIN/VID is not found/in case of data mis-match, trigger error message accordingly
-c. If OTP authentication fails, trigger error message</t>
-    </r>
-  </si>
-  <si>
-    <t>APIs developed by IDA:
-a) An aAPI to store the static pin set by the user using Resident Services
-b) An API to generate/regenerate a VID on user’s request</t>
-  </si>
-  <si>
     <t>As the MOSIP system, I should be able to generate VID as requested, for a specific UIN</t>
   </si>
   <si>
     <t>Lock/Unlock UIN for each Auth Type</t>
-  </si>
-  <si>
-    <t>Initiate Address Update</t>
   </si>
   <si>
     <t>As the MOSIP system, I should be able to process a request to re-print UIN</t>
@@ -435,21 +391,161 @@
     <t>As the MOSIP system, I should be able to process a request to retrieve RID</t>
   </si>
   <si>
+    <t>Request re-print of UIN</t>
+  </si>
+  <si>
+    <t>&gt; This has been de-scoped as suggested by Sasi, due to Secutiry reasons</t>
+  </si>
+  <si>
+    <t>1. Input:  UIN/VID and Security Code
+2. Authenticate the User with Phone Number/OTP Authentication
+3. Process:
+a. If OTP authentication is successful and UIN found,
+- Present the option to enter old PIN and new PIN 
+- Receive old and new PIN 
+- If old PIN matches and new PIN matches the policy (Refer PIN creation rules) &gt; Confirm Update and trigger notification. Also, store new PIN against the provided UIN
+- If old PIN does not match, trigger error message
+b. If UIN/VID is not found/in case of data mis-match, trigger error message accordingly
+c. If OTP authentication fails, trigger error message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; This has been de-scoped as suggested by Sasi, due to Secutiry reasons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+APIs developed by IDA:
+a) An aAPI to store the static pin set by the user using Resident Services
+b) An API to generate/regenerate a VID on user’s request</t>
+    </r>
+  </si>
+  <si>
+    <t>Download e-UIN</t>
+  </si>
+  <si>
+    <t>To prevent mis-use where 1 mobile has been used for too many registrations, the country defines average size of family (Default of MOSIP is 5) and when a mobile number is attached to more than average size of family, in such cases Retrieve via OTP option is not executable and person is encouraged to visit a registration centre for Option 1  - Via Registration Client software to find their RID/UID</t>
+  </si>
+  <si>
     <t>1. Input:  Full Name, Mobile Number/E-Mail ID, Postal Code
 2. If data does not match, provide error message
-3. If data matches,  send  OTP to registered number and authenticate with OTP
+3. If data matches,  verify if mobile is associated to more than the average size of the family
+4. If validation passed, send  OTP to registered number and authenticate with OTP
+a. If OTP authentication fails, trigger error message
+b. If OTP authentication is successful, then:
+&gt; Retreive and generate RID acknowledgement (pdf) &gt; Also provide success message: Congratulation! Your RID has been retrieved
+&gt; Trigger notification with link of the pdf to the registered number/email
+&gt; RID pdf should be password protected (Postal Code)</t>
+  </si>
+  <si>
+    <t>1. Input:  Full Name, Mobile Number/E-Mail ID, Postal Code
+2. If data does not match, provide error message
+3. 3. If data matches,  verify if mobile is associated to more than the average size of the family
+4. If validation passed, send OTP to registered number and authenticate with OTP
 a. If OTP authentication fails, trigger error message
 b. If OTP authentication is successful, then:
 &gt; Retreive and generate e-UIN (pdf) &gt; Also provide success message: Congratulation! Your UIN has been retrieved
-&gt; Trigger notification with link of the pdf to the registered number/email I
+&gt; Trigger notification with link of the pdf to the registered number/email
 &gt; e-UIN should be password protected (Postal Code)</t>
+  </si>
+  <si>
+    <t>S. No.</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to enable download of e-UIN</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to process a request to view auth requests history for a specific UIN/VID</t>
+  </si>
+  <si>
+    <t>Initiate UIN Update - Address</t>
+  </si>
+  <si>
+    <t>clarifications needed</t>
+  </si>
+  <si>
+    <t>1. if demo auth is locked? What happens?
+2. what is use case of providing a RID PDF, why not just a RID number?
+3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
+  </si>
+  <si>
+    <t>1. Is this requirement still part of Resident services?
+2. if demo auth is locked? What happens?
+3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Is this requirement a subset of what registration client does for update? If so can there be an reuse of the feature?
+2. in future if there can be many parameters which can be provisioned for updated? What can be done and is Resident services capable of doing for all? check for scalability?
+</t>
+  </si>
+  <si>
+    <t>1.what is security code?</t>
+  </si>
+  <si>
+    <t>1. why is RID an input here and not UIN?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. what is the use case of locking specific Biometric auths and combinations?
+2. What is the data taken as input from the Individual?
+3. Is there a mechanism to lock OTP Authentication?
+4. need more clarity on a2
+5. Can Lock/Unlock will be perfomed only by OTP authentication of Mobile number or can it be done by email as well?
+6. Need to check with IDA on the process of authentication done, so that the gaps could be covered
+7. Can both UIN and VID be locked at the same time?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research info </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident can lock his UID number Via Resident Portal, by doing this Resident cannot perform any sort of Authentication by using UID, UID Token &amp; ANCS Token for Biometric, Demographic &amp; OTP Based authentication. Once UID is locked resident can authenticate using 16 digit VID Number for all forms of authentication (Demo, Bio &amp; OTP).
+</t>
+  </si>
+  <si>
+    <t>1. What is the use case of reprinting? Will there be a cost associated to it? If not can it be abused by the individual?will there be a limit on number times an individual can access it? If cost is associated, will there be a check performed for the payment?
+2. Why RID is accepted as an input parameter? What is the use case.
+3. Aadhar provides option to enter non registered mobile number on which the OTP can be received.</t>
+  </si>
+  <si>
+    <t>Aadhar asks for Payment to perform Re-print
+"Order Aadhaar Reprint" is a new service launched by UIDAI w.e.f. 01-12-2018 on Pilot basis which facilitates the residents of India to get their Aadhaar letter reprint by paying nominal charges, in case, Aadhaar letter of resident has been lost, misplaced or if they want a new copy. Residents who do not have registered mobile number can also "Order Aadhaar Reprint" using Non-Registered / Alternate Mobile Number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to English you can update/do correction in your address in any of the following languages:
+Assamese, Bengali, English, Gujarati, Hindi, Kannada, Malayalam, Marathi, Odia, Punjabi, Tamil, Telugu and Urdu.
+</t>
+  </si>
+  <si>
+    <t>e-UIN should be password protected (Postal Code/combination of Name-DoB - TBD)?
+Should the RID also be considered for downloading e-UIN</t>
+  </si>
+  <si>
+    <t>Resident can download e-Aadhaar using 28 digit enrolment no. along with Full Name and Pin code. In this download process OTP is received on registered mobile no. Resident can also use TOTP to download e-Aadhaar instead of OTP. TOTP can generated using mAadhaar mobile Application.
+e-Aadhaar is a password protected electronic copy of Aadhaar, which is digitally signed by the competent Authority of UIDAI.</t>
+  </si>
+  <si>
+    <t>exact paramters needs to be known. For this the Authentication data stored by IDA needs to be known.
+Use case for an Individual to access the Auth history needs to be known, as it will help in understanding the Paramters to be displayed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +595,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -515,13 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -840,7 +944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,18 +968,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -888,29 +986,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="38">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1114,7 +1271,290 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1191,22 +1631,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:M16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A2:M16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:O13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A2:O13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="clarifications needed" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A2:M5" xr:uid="{BAEF4897-0E77-4DB8-9DBC-4FCFFE073206}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sr No." dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1481,22 +1945,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4"/>
-    <col min="2" max="2" width="78.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="78.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:3" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -1504,61 +1968,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +2030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1574,7 +2038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
@@ -1590,427 +2054,412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="13.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="65.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="64.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="31"/>
+    <col min="2" max="2" width="13.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="25" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="61.81640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="65.81640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="64.26953125" style="17" customWidth="1"/>
     <col min="13" max="13" width="12" style="17" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="17"/>
+    <col min="14" max="14" width="48.54296875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="52.26953125" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="I2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="20"/>
+      <c r="N3" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="33" t="s">
+        <v>65</v>
+      </c>
       <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" ht="11.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <f>A4+1</f>
-        <v>3</v>
+      <c r="N6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29">
+        <v>5</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>4</v>
+      <c r="D7" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <f t="shared" ref="A8:A15" si="0">A7+1</f>
-        <v>4</v>
+      <c r="M7" s="19"/>
+      <c r="N7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29">
+        <v>6</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="27" t="s">
-        <v>5</v>
+      <c r="D8" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="27" t="s">
-        <v>62</v>
+      <c r="D9" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="14" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="L9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="27" t="s">
-        <v>61</v>
+      <c r="D10" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <f>A8+1</f>
-        <v>5</v>
+      <c r="M10" s="19"/>
+      <c r="N10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>9</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="27" t="s">
-        <v>49</v>
+      <c r="D11" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="L11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
+        <v>10</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>58</v>
+      <c r="D12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" ht="187.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="L12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="30">
+        <v>11</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14" t="s">
-        <v>44</v>
+      <c r="D13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" ht="195" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="255" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="21"/>
+      <c r="L13" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2024,7 +2473,197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5C9D29-BB58-4DE3-9642-6A631BA7634B}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" style="31"/>
+    <col min="2" max="2" width="13.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="61.81640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="65.81640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="64.26953125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="254.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" s="40" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2231,15 +2870,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2267,6 +2897,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B8CA9A-DD82-42AF-8D7A-A732A1A6A7F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2285,27 +2923,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74E7A1AA-AE65-4F94-A5A2-9EE575F0B308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F999ECB-377A-4DAF-AD29-5ED77DB05BA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="2740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -492,10 +492,42 @@
 </t>
   </si>
   <si>
-    <t>1.what is security code?</t>
-  </si>
-  <si>
-    <t>1. why is RID an input here and not UIN?</t>
+    <t xml:space="preserve">Research info </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident can lock his UID number Via Resident Portal, by doing this Resident cannot perform any sort of Authentication by using UID, UID Token &amp; ANCS Token for Biometric, Demographic &amp; OTP Based authentication. Once UID is locked resident can authenticate using 16 digit VID Number for all forms of authentication (Demo, Bio &amp; OTP).
+</t>
+  </si>
+  <si>
+    <t>Aadhar asks for Payment to perform Re-print
+"Order Aadhaar Reprint" is a new service launched by UIDAI w.e.f. 01-12-2018 on Pilot basis which facilitates the residents of India to get their Aadhaar letter reprint by paying nominal charges, in case, Aadhaar letter of resident has been lost, misplaced or if they want a new copy. Residents who do not have registered mobile number can also "Order Aadhaar Reprint" using Non-Registered / Alternate Mobile Number.</t>
+  </si>
+  <si>
+    <t>e-UIN should be password protected (Postal Code/combination of Name-DoB - TBD)?
+Should the RID also be considered for downloading e-UIN</t>
+  </si>
+  <si>
+    <t>Resident can download e-Aadhaar using 28 digit enrolment no. along with Full Name and Pin code. In this download process OTP is received on registered mobile no. Resident can also use TOTP to download e-Aadhaar instead of OTP. TOTP can generated using mAadhaar mobile Application.
+e-Aadhaar is a password protected electronic copy of Aadhaar, which is digitally signed by the competent Authority of UIDAI.</t>
+  </si>
+  <si>
+    <t>exact paramters needs to be known. For this the Authentication data stored by IDA needs to be known.
+Use case for an Individual to access the Auth history needs to be known, as it will help in understanding the Paramters to be displayed.</t>
+  </si>
+  <si>
+    <t>In addition to English you can update/do correction in your address in any of the following languages:
+Assamese, Bengali, English, Gujarati, Hindi, Kannada, Malayalam, Marathi, Odia, Punjabi, Tamil, Telugu and Urdu.
+Q:I do not have any document proof of my address. Can I still update my address in my Aadhaar? Address Verifier concept
+Q:Does submission of request guarantee Updation of information?
+Submission of information for update does not guarantee update of Aadhaar data. The information submitted is subject to verification and validation. Furnishing of incorrect information/suppression of information would lead to rejection of application.</t>
+  </si>
+  <si>
+    <t>1. why is RID an input here and not UIN?
+2. What are the Statuses required?</t>
+  </si>
+  <si>
+    <t>1.what is security code?
+2. What is Statuses required?</t>
   </si>
   <si>
     <t xml:space="preserve">1. what is the use case of locking specific Biometric auths and combinations?
@@ -505,40 +537,17 @@
 5. Can Lock/Unlock will be perfomed only by OTP authentication of Mobile number or can it be done by email as well?
 6. Need to check with IDA on the process of authentication done, so that the gaps could be covered
 7. Can both UIN and VID be locked at the same time?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research info </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident can lock his UID number Via Resident Portal, by doing this Resident cannot perform any sort of Authentication by using UID, UID Token &amp; ANCS Token for Biometric, Demographic &amp; OTP Based authentication. Once UID is locked resident can authenticate using 16 digit VID Number for all forms of authentication (Demo, Bio &amp; OTP).
+Is this feature exclusive to Resident services?
+what is Demographic auth?
+*Notification service is required here
 </t>
   </si>
   <si>
     <t>1. What is the use case of reprinting? Will there be a cost associated to it? If not can it be abused by the individual?will there be a limit on number times an individual can access it? If cost is associated, will there be a check performed for the payment?
 2. Why RID is accepted as an input parameter? What is the use case.
-3. Aadhar provides option to enter non registered mobile number on which the OTP can be received.</t>
-  </si>
-  <si>
-    <t>Aadhar asks for Payment to perform Re-print
-"Order Aadhaar Reprint" is a new service launched by UIDAI w.e.f. 01-12-2018 on Pilot basis which facilitates the residents of India to get their Aadhaar letter reprint by paying nominal charges, in case, Aadhaar letter of resident has been lost, misplaced or if they want a new copy. Residents who do not have registered mobile number can also "Order Aadhaar Reprint" using Non-Registered / Alternate Mobile Number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In addition to English you can update/do correction in your address in any of the following languages:
-Assamese, Bengali, English, Gujarati, Hindi, Kannada, Malayalam, Marathi, Odia, Punjabi, Tamil, Telugu and Urdu.
-</t>
-  </si>
-  <si>
-    <t>e-UIN should be password protected (Postal Code/combination of Name-DoB - TBD)?
-Should the RID also be considered for downloading e-UIN</t>
-  </si>
-  <si>
-    <t>Resident can download e-Aadhaar using 28 digit enrolment no. along with Full Name and Pin code. In this download process OTP is received on registered mobile no. Resident can also use TOTP to download e-Aadhaar instead of OTP. TOTP can generated using mAadhaar mobile Application.
-e-Aadhaar is a password protected electronic copy of Aadhaar, which is digitally signed by the competent Authority of UIDAI.</t>
-  </si>
-  <si>
-    <t>exact paramters needs to be known. For this the Authentication data stored by IDA needs to be known.
-Use case for an Individual to access the Auth history needs to be known, as it will help in understanding the Paramters to be displayed.</t>
+3. Aadhar provides option to enter non registered mobile number on which the OTP can be received.
+Is this feature part of Reg Proc(though not Re-print but Print of UIN)?
+* Notification service is required</t>
   </si>
 </sst>
 </file>
@@ -1053,23 +1062,6 @@
   <dxfs count="38">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1332,6 +1324,23 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1648,29 +1657,29 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="21"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="20"/>
     <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="clarifications needed" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A2:M5" xr:uid="{BAEF4897-0E77-4DB8-9DBC-4FCFFE073206}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2057,10 +2066,10 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2143,7 +2152,7 @@
         <v>72</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
@@ -2171,10 +2180,10 @@
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="41" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
@@ -2200,10 +2209,10 @@
       <c r="L4" s="24"/>
       <c r="M4" s="20"/>
       <c r="N4" s="14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="174" x14ac:dyDescent="0.35">
@@ -2290,7 +2299,7 @@
         <v>75</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
@@ -2315,8 +2324,8 @@
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="15" t="s">
-        <v>77</v>
+      <c r="N8" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="O8" s="15"/>
     </row>
@@ -2348,8 +2357,8 @@
         <v>35</v>
       </c>
       <c r="M9" s="19"/>
-      <c r="N9" s="15" t="s">
-        <v>76</v>
+      <c r="N9" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="O9" s="15"/>
     </row>
@@ -2376,10 +2385,10 @@
       <c r="L10" s="14"/>
       <c r="M10" s="19"/>
       <c r="N10" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
@@ -2407,7 +2416,7 @@
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O11" s="15"/>
     </row>
@@ -2655,12 +2664,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2871,35 +2897,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2924,18 +2942,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F999ECB-377A-4DAF-AD29-5ED77DB05BA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB22C294-CACF-44AE-BB91-EF32E56276FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="2740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,35 +132,9 @@
     <t>Status rendered will be static and fixed, as in Aadhaar - Please confirm?</t>
   </si>
   <si>
-    <t>1. Input:  UIN/VID, Security Code
-2. Process:
-a. If UIN found and Security Code matches:
-- Allow to select: Auth Type (All, Demo, Biometric, OTP, Demo &amp; Bio, Demo &amp; OTP, Bio &amp; OTP)
-- Allow to select: Date Range (6 months in the past to current date)
-- Allow to select number of records (Max 50)
-- Allow to enter OTP
-b. If OTP authentication is successful:
-- Display auth history as per selection criteria
-- Allow to download - pdf
-b. If UIN/VID is not found, trigger error message accordingly
-c. If OTP authentication fails, trigger error message</t>
-  </si>
-  <si>
     <t>Current Message in Aadhaar/UIDAI:
 Your Biometric Lock is currently disabled. By enabling lock, you can lock your biometrics(fingerprint &amp; Iris) against any biometric authentication attempt.Users of this System are cautioned to use this facility with care to prevent denial of Authentication services.
 To Enable Biometric Lock please enter security code and then click on 'Enable' Button.</t>
-  </si>
-  <si>
-    <t>Parameters displayed in Aadhaar/UIDAI:
-1. Sno
-2. Auth Modality: OTP
-3. Date 
-4. Time 
-5. AUA Name: UIDAI Online Services 
-6. UIDAI Response Code: 6ceda1a2e7e54c8eb6d359f7373a1bd7
-7. AUA Transaction ID: Biometric:0002980000:20190219111631161
-8. Authentication Response: Success
-9. UIDAI Error Code: NA</t>
   </si>
   <si>
     <r>
@@ -369,19 +343,6 @@
 b. If OTP authentication fails, trigger error message</t>
   </si>
   <si>
-    <t>1. Input:  RID/UIN/VID 
-3. If RID/UIN/VID not found/does not match, provide error message
-4. If RID/UIN/VID found and matches:
-- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
-- If number not linked with RID/UIN/VID, then trigger error message
-5. Process:
-a. If OTP authentication is successful:
-- Retreive and generate e-UIN (pdf) &gt; Also provide success message: Congratulation! Your UIN has been retrieved. Trigger a link of the pdf to the registered number/email ID?
-- e-UIN should be password protected (Postal Code/combination of Name-DoB - TBD)
-- Send request to print queue should be customized by the SI if required
-b. If OTP authentication fails, trigger error message</t>
-  </si>
-  <si>
     <t>Retrieve Lost RID</t>
   </si>
   <si>
@@ -477,26 +438,7 @@
     <t>clarifications needed</t>
   </si>
   <si>
-    <t>1. if demo auth is locked? What happens?
-2. what is use case of providing a RID PDF, why not just a RID number?
-3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
-  </si>
-  <si>
-    <t>1. Is this requirement still part of Resident services?
-2. if demo auth is locked? What happens?
-3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Is this requirement a subset of what registration client does for update? If so can there be an reuse of the feature?
-2. in future if there can be many parameters which can be provisioned for updated? What can be done and is Resident services capable of doing for all? check for scalability?
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Research info </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident can lock his UID number Via Resident Portal, by doing this Resident cannot perform any sort of Authentication by using UID, UID Token &amp; ANCS Token for Biometric, Demographic &amp; OTP Based authentication. Once UID is locked resident can authenticate using 16 digit VID Number for all forms of authentication (Demo, Bio &amp; OTP).
-</t>
   </si>
   <si>
     <t>Aadhar asks for Payment to perform Re-print
@@ -509,10 +451,6 @@
   <si>
     <t>Resident can download e-Aadhaar using 28 digit enrolment no. along with Full Name and Pin code. In this download process OTP is received on registered mobile no. Resident can also use TOTP to download e-Aadhaar instead of OTP. TOTP can generated using mAadhaar mobile Application.
 e-Aadhaar is a password protected electronic copy of Aadhaar, which is digitally signed by the competent Authority of UIDAI.</t>
-  </si>
-  <si>
-    <t>exact paramters needs to be known. For this the Authentication data stored by IDA needs to be known.
-Use case for an Individual to access the Auth history needs to be known, as it will help in understanding the Paramters to be displayed.</t>
   </si>
   <si>
     <t>In addition to English you can update/do correction in your address in any of the following languages:
@@ -522,39 +460,171 @@
 Submission of information for update does not guarantee update of Aadhaar data. The information submitted is subject to verification and validation. Furnishing of incorrect information/suppression of information would lead to rejection of application.</t>
   </si>
   <si>
-    <t>1. why is RID an input here and not UIN?
-2. What are the Statuses required?</t>
-  </si>
-  <si>
     <t>1.what is security code?
 2. What is Statuses required?</t>
   </si>
   <si>
-    <t xml:space="preserve">1. what is the use case of locking specific Biometric auths and combinations?
+    <t>1. if demo auth is locked? What happens? Not valid
+2. what is use case of providing a RID PDF, why not just a RID number?
+3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
+  </si>
+  <si>
+    <t>1. Is this requirement still part of Resident services?
+2. if demo auth is locked? What happens? No impact
+3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
+  </si>
+  <si>
+    <t>1. why is RID an input here and not UIN?RID is tracking number
+2. What are the Statuses required?</t>
+  </si>
+  <si>
+    <t>1. Input:  UIN/VID 
+3. If UIN/VID not found/does not match, provide error message
+4. If UIN/VID found and matches:
+- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
+- If number not linked with RID/UIN/VID, then trigger error message
+5. Process:
+a. If OTP authentication is successful:
+- Retreive and generate e-UIN (pdf) &gt; Also provide success message: Congratulation! Your UIN has been retrieved. Trigger a link of the pdf to the registered number/email ID?
+- e-UIN should be password protected (Postal Code/combination of Name-DoB - TBD)
+- Send request to print queue should be customized by the SI if required
+b. If OTP authentication fails, trigger error message</t>
+  </si>
+  <si>
+    <t>exact paramters needs to be known. For this the Authentication data stored by IDA needs to be known.
+Use case for an Individual to access the Auth history needs to be known, as it will help in understanding the Paramters to be displayed.+[@[clarifications needed]]</t>
+  </si>
+  <si>
+    <r>
+      <t>Parameters displayed in Aadhaar/UIDAI:
+1. Sno
+2. Auth Modality: OTP
+3. Date 
+4. Time 
+5. AUA Name: UIDAI Online Services 
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. UIDAI Response Code: 6ceda1a2e7e54c8eb6d359f7373a1bd7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7. AUA Transaction ID: Biometric:0002980000:20190219111631161
+8. Authentication Response: Success
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. UIDAI Error Code: NA</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Input:  UIN/VID, Security Code
+2. Process:
+a. If UIN found and Security Code matches:
+- Allow to select: Auth Type (All, Demo, Biometric, OTP, Demo &amp; Bio, Demo &amp; OTP, Bio &amp; OTP)
+- Allow to select: Date Range (6 months in the past to current date)
+- Allow to select number of records (Max 50)
+- Allow to enter OTP
+b. If OTP authentication is successful:
+- Display auth history as per selection criteria
+- Allow to download - pdf??
+b. If UIN/VID is not found, trigger error message accordingly
+c. If OTP authentication fails, trigger error message</t>
+  </si>
+  <si>
+    <t>check for VID status
+Number of attempts left
+Validity</t>
+  </si>
+  <si>
+    <t>1. Is this requirement a subset of what registration client does for update? If so can there be an reuse of the feature?
+2. in future if there can be many parameters which can be provisioned for updated? What can be done and is Resident services capable of doing for all? check for scalability?
+reuse at Reg client.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. what is the use case of locking specific Biometric auths and combinations?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+external
 2. What is the data taken as input from the Individual?
 3. Is there a mechanism to lock OTP Authentication?
 4. need more clarity on a2
-5. Can Lock/Unlock will be perfomed only by OTP authentication of Mobile number or can it be done by email as well?
+5. Can Lock/Unlock will be perfomed only by OTP authentication of Mobile number or can it be done by email as well? both
 6. Need to check with IDA on the process of authentication done, so that the gaps could be covered
 7. Can both UIN and VID be locked at the same time?
 Is this feature exclusive to Resident services?
 what is Demographic auth?
 *Notification service is required here
 </t>
-  </si>
-  <si>
-    <t>1. What is the use case of reprinting? Will there be a cost associated to it? If not can it be abused by the individual?will there be a limit on number times an individual can access it? If cost is associated, will there be a check performed for the payment?
-2. Why RID is accepted as an input parameter? What is the use case.
-3. Aadhar provides option to enter non registered mobile number on which the OTP can be received.
-Is this feature part of Reg Proc(though not Re-print but Print of UIN)?
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. What is the use case of reprinting? Will there be a cost associated to it? If not can it be abused by the individual?will there be a limit on number times an individual can access it? If cost is associated, will there be a check performed for the payment? external</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Aadhar provides option to enter non registered mobile number on which the OTP can be received.
+Is this feature part of Reg Proc(though not Re-print but Print of UIN)? reuse 
 * Notification service is required</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,6 +678,19 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2066,7 +2149,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
@@ -2110,7 +2193,7 @@
     </row>
     <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -2149,41 +2232,41 @@
         <v>24</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="261" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="41" t="s">
         <v>85</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
@@ -2193,14 +2276,14 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2212,7 +2295,7 @@
         <v>86</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="174" x14ac:dyDescent="0.35">
@@ -2222,25 +2305,25 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O5" s="15"/>
     </row>
@@ -2251,25 +2334,25 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O6" s="15"/>
     </row>
@@ -2280,14 +2363,14 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -2296,10 +2379,10 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
       <c r="N7" s="14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
@@ -2313,10 +2396,10 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -2325,7 +2408,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
       <c r="N8" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O8" s="15"/>
     </row>
@@ -2343,7 +2426,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>26</v>
@@ -2358,7 +2441,7 @@
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O9" s="15"/>
     </row>
@@ -2369,14 +2452,14 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -2385,10 +2468,10 @@
       <c r="L10" s="14"/>
       <c r="M10" s="19"/>
       <c r="N10" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
@@ -2402,21 +2485,21 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="14" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O11" s="15"/>
     </row>
@@ -2432,14 +2515,14 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="15"/>
@@ -2457,14 +2540,14 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="16"/>
@@ -2529,7 +2612,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -2579,10 +2662,10 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>26</v>
@@ -2593,7 +2676,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M3" s="19"/>
     </row>
@@ -2611,7 +2694,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>26</v>
@@ -2638,7 +2721,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>26</v>
@@ -2664,29 +2747,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2897,27 +2963,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2942,9 +3016,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE3212F6-2966-4D9B-A0F4-E11B6709D589}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78ADB436-0162-47E5-8F5E-C5CB5A48297C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
     <sheet name="VID" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
   <si>
     <t>Feature</t>
   </si>
@@ -603,12 +603,38 @@
   <si>
     <t>Carifications Needed</t>
   </si>
+  <si>
+    <t>User is travelling out of country, personal choice, doesn,t want misuse. Can be anything. It's a user choice. That is the use case. 
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>User likes multiple copies, use lost old copy. Can be anything. Provision to keep track on no of reprint required, country can reject free request after a X upper limit, X can be zero, country to allow payment based reprint, thus integration point with payment gateway will be required for SI customisation etc. 
+validation and the Interface for Payment gateway will be part of Resident portal(business Logic)- by SI
+The service should cater to any service received for Re-printing
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>Can update any demo graphic information, validations should be done by Portal.
+Should cater to updation of demographic details as done by Reg. client
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>think and come back on what all status can the request have and we can rationalise. 
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>YES. Correct understanding. 
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,13 +699,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="16"/>
@@ -1019,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1142,6 +1161,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1149,18 +1183,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1168,23 +1190,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1466,6 +1471,23 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1782,30 +1804,30 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="22"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="21"/>
     <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A2:M5" xr:uid="{BAEF4897-0E77-4DB8-9DBC-4FCFFE073206}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2080,22 +2102,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4"/>
-    <col min="2" max="2" width="78.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="8.6328125" style="4"/>
+    <col min="2" max="2" width="78.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:3" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -2103,61 +2125,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2165,7 +2187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2173,7 +2195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
@@ -2191,55 +2213,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:P1"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="13.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="31"/>
+    <col min="2" max="2" width="13.453125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" style="37" customWidth="1"/>
     <col min="5" max="5" width="25" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="65.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="50.453125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="65.81640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" style="17" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="17" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="56.42578125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="56.453125" style="17" customWidth="1"/>
     <col min="13" max="13" width="12" style="17" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="34.7109375" style="17" customWidth="1"/>
-    <col min="16" max="16" width="52.28515625" style="17" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="17"/>
+    <col min="14" max="14" width="39.453125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="34.6328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="52.36328125" style="17" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:16" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-    </row>
-    <row r="2" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+    </row>
+    <row r="2" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>64</v>
       </c>
@@ -2289,7 +2311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -2313,15 +2335,17 @@
         <v>36</v>
       </c>
       <c r="M3" s="20"/>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="41"/>
+      <c r="O3" s="41" t="s">
+        <v>90</v>
+      </c>
       <c r="P3" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="319" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -2343,15 +2367,17 @@
       <c r="K4" s="16"/>
       <c r="L4" s="24"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="P4" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -2378,10 +2404,12 @@
       <c r="N5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="14"/>
+      <c r="O5" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -2408,10 +2436,12 @@
       <c r="N6" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -2436,12 +2466,14 @@
       <c r="N7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="P7" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="270" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -2466,10 +2498,12 @@
       <c r="N8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="14"/>
+      <c r="O8" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -2500,10 +2534,12 @@
       <c r="N9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="14"/>
+      <c r="O9" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -2528,12 +2564,14 @@
       <c r="N10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="14"/>
+      <c r="O10" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="P10" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -2558,10 +2596,12 @@
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>10</v>
       </c>
@@ -2587,7 +2627,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>11</v>
       </c>
@@ -2613,8 +2653,8 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+    <row r="14" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="42">
         <v>12</v>
       </c>
       <c r="B14" s="16"/>
@@ -2637,8 +2677,8 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="42">
         <v>13</v>
       </c>
       <c r="B15" s="16"/>
@@ -2684,41 +2724,41 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
-    <col min="2" max="2" width="13.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="65.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="64.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="31"/>
+    <col min="2" max="2" width="13.453125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="61.81640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="65.81640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.36328125" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" style="17" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="64.36328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="12" style="17" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="17"/>
+    <col min="14" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>64</v>
       </c>
@@ -2759,7 +2799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="254.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -2788,7 +2828,7 @@
       </c>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="40" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -2815,7 +2855,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="39"/>
     </row>
-    <row r="5" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -2855,6 +2895,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2880,7 +2929,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3087,33 +3136,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B8CA9A-DD82-42AF-8D7A-A732A1A6A7F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3130,12 +3178,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78ADB436-0162-47E5-8F5E-C5CB5A48297C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C22ABF38-F4E2-46BE-8BE4-1FCEDC3E376E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>Feature</t>
   </si>
@@ -628,6 +628,42 @@
   <si>
     <t>YES. Correct understanding. 
 Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>estimate(PDs)-CUT</t>
+  </si>
+  <si>
+    <t>Send OTP</t>
+  </si>
+  <si>
+    <t>RS-10
+Reg proc-20</t>
+  </si>
+  <si>
+    <t>RS-10
+ID Repo-20</t>
+  </si>
+  <si>
+    <t>RS-10
+Reg proc-10</t>
+  </si>
+  <si>
+    <t>No Additional estimate
+same as previous</t>
+  </si>
+  <si>
+    <t>20
+ID Repo- effort?</t>
+  </si>
+  <si>
+    <t>RS-10
+IDA-10</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>RS-115 + other modules-60</t>
   </si>
 </sst>
 </file>
@@ -708,7 +744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +769,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1038,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1184,12 +1226,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1787,47 +1838,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:P15" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="A2:P15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:Q16" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="A2:Q16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{BA6CF5C0-D673-4221-AF2B-15571968A0FE}" name="estimate(PDs)-CUT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A2:M5" xr:uid="{BAEF4897-0E77-4DB8-9DBC-4FCFFE073206}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2211,13 +2263,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2238,10 +2290,11 @@
     <col min="14" max="14" width="39.453125" style="17" customWidth="1"/>
     <col min="15" max="15" width="34.6328125" style="17" customWidth="1"/>
     <col min="16" max="16" width="52.36328125" style="17" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="17"/>
+    <col min="17" max="17" width="24.6328125" style="17" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>34</v>
       </c>
@@ -2261,7 +2314,7 @@
       <c r="O1" s="46"/>
       <c r="P1" s="46"/>
     </row>
-    <row r="2" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>64</v>
       </c>
@@ -2310,8 +2363,11 @@
       <c r="P2" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="Q2" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -2344,8 +2400,11 @@
       <c r="P3" s="41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="319" x14ac:dyDescent="0.35">
+      <c r="Q3" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="319" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -2376,14 +2435,17 @@
       <c r="P4" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="174" x14ac:dyDescent="0.35">
+      <c r="Q4" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="50" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="16"/>
@@ -2408,14 +2470,17 @@
         <v>91</v>
       </c>
       <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" ht="174" x14ac:dyDescent="0.35">
+      <c r="Q5" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>4</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="51" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="16"/>
@@ -2440,8 +2505,11 @@
         <v>91</v>
       </c>
       <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -2472,8 +2540,11 @@
       <c r="P7" s="14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="Q7" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -2502,8 +2573,11 @@
         <v>94</v>
       </c>
       <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" ht="174" x14ac:dyDescent="0.35">
+      <c r="Q8" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -2538,8 +2612,11 @@
         <v>94</v>
       </c>
       <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" ht="145" x14ac:dyDescent="0.35">
+      <c r="Q9" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -2570,8 +2647,11 @@
       <c r="P10" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="Q10" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -2600,91 +2680,93 @@
         <v>91</v>
       </c>
       <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
-        <v>10</v>
-      </c>
+      <c r="Q11" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26" t="s">
-        <v>40</v>
-      </c>
+      <c r="D12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="L12" s="14"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="Q12" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="26" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="26" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="42">
-        <v>12</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="20"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2694,12 +2776,41 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="42">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q18" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2895,41 +3006,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3136,32 +3212,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B8CA9A-DD82-42AF-8D7A-A732A1A6A7F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3178,4 +3264,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C22ABF38-F4E2-46BE-8BE4-1FCEDC3E376E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9FEB2E7C-A863-4C49-8C82-F05A172EF61F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Details" sheetId="2" r:id="rId2"/>
     <sheet name="VID" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
   <si>
     <t>Feature</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>As the MOSIP system, I should be able to generate VID as requested, for a specific UIN</t>
-  </si>
-  <si>
-    <t>Lock/Unlock UIN for each Auth Type</t>
   </si>
   <si>
     <t>As the MOSIP system, I should be able to process a request to re-print UIN</t>
@@ -664,6 +661,48 @@
   </si>
   <si>
     <t>RS-115 + other modules-60</t>
+  </si>
+  <si>
+    <t>clarifications needed</t>
+  </si>
+  <si>
+    <t>weak authentication</t>
+  </si>
+  <si>
+    <t>Lock/Unlock UIN/VID for each Auth Type</t>
+  </si>
+  <si>
+    <t>how do I take RID by Mobile/email or name etc.</t>
+  </si>
+  <si>
+    <t>packet creation is required
+Document for Reference is needed for upload
+Acknowledgemnt generation</t>
+  </si>
+  <si>
+    <t>Send Notification is required?</t>
+  </si>
+  <si>
+    <t>Finger print type needed(individual fingers needed?)
+Can supervisor or Ro lock his auth- impact
+why mobile/email id is needed 
+Feasibility of the Authentication for Multiple authentication</t>
+  </si>
+  <si>
+    <t>Module Dependency</t>
+  </si>
+  <si>
+    <t>IDA</t>
+  </si>
+  <si>
+    <t>Reg proc</t>
+  </si>
+  <si>
+    <t>IDA
+Reg Proc</t>
+  </si>
+  <si>
+    <t>Reg PRoc</t>
   </si>
 </sst>
 </file>
@@ -1212,6 +1251,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1226,18 +1271,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1506,6 +1545,13 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1838,26 +1884,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:Q16" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="A2:Q16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{BA6CF5C0-D673-4221-AF2B-15571968A0FE}" name="estimate(PDs)-CUT" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:S16" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+  <autoFilter ref="A2:S16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{BA6CF5C0-D673-4221-AF2B-15571968A0FE}" name="estimate(PDs)-CUT" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{01BC0E2E-2278-4657-B425-1B825351D8EF}" name="clarifications needed" dataDxfId="19">
+      <calculatedColumnFormula>- Finger print type needed(individual fingers needed?)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{A2BAB483-8C1C-469A-95FE-F84C2AD42ACB}" name="Module Dependency" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2263,13 +2313,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2291,32 +2341,34 @@
     <col min="15" max="15" width="34.6328125" style="17" customWidth="1"/>
     <col min="16" max="16" width="52.36328125" style="17" customWidth="1"/>
     <col min="17" max="17" width="24.6328125" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="17"/>
+    <col min="18" max="18" width="43.1796875" style="17" customWidth="1"/>
+    <col min="19" max="19" width="23.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-    </row>
-    <row r="2" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+    </row>
+    <row r="2" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -2355,33 +2407,39 @@
         <v>24</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="246.5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -2392,33 +2450,39 @@
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="319" x14ac:dyDescent="0.35">
+      <c r="R3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="319" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>2</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2427,103 +2491,118 @@
       <c r="L4" s="24"/>
       <c r="M4" s="20"/>
       <c r="N4" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="174" x14ac:dyDescent="0.35">
+      <c r="R4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="50" t="s">
-        <v>53</v>
+      <c r="D5" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="174" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>4</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="51" t="s">
-        <v>54</v>
+      <c r="D6" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>5</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -2532,19 +2611,25 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
       <c r="N7" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="R7" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -2555,10 +2640,10 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -2567,17 +2652,20 @@
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
       <c r="N8" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="174" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -2591,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>26</v>
@@ -2606,28 +2694,31 @@
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="145" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>8</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>38</v>
@@ -2639,19 +2730,22 @@
       <c r="L10" s="14"/>
       <c r="M10" s="19"/>
       <c r="N10" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -2662,34 +2756,37 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="14"/>
@@ -2704,10 +2801,10 @@
       <c r="O12" s="16"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>10</v>
       </c>
@@ -2726,14 +2823,14 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>11</v>
       </c>
@@ -2745,28 +2842,28 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>12</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2776,21 +2873,21 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>13</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -2800,7 +2897,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="16"/>
@@ -2809,7 +2906,7 @@
     </row>
     <row r="18" spans="17:17" x14ac:dyDescent="0.35">
       <c r="Q18" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2854,24 +2951,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="A1" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -2924,7 +3021,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>26</v>
@@ -2935,7 +3032,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="19"/>
     </row>
@@ -3006,6 +3103,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3212,42 +3344,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B8CA9A-DD82-42AF-8D7A-A732A1A6A7F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3264,29 +3386,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9FEB2E7C-A863-4C49-8C82-F05A172EF61F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D6820BA-0845-4BD5-8295-D015A9D9068B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
   <si>
     <t>Feature</t>
   </si>
@@ -703,6 +703,44 @@
   </si>
   <si>
     <t>Reg PRoc</t>
+  </si>
+  <si>
+    <t>Reg Proc</t>
+  </si>
+  <si>
+    <t>No Mapping of such kind from Reg Processor
+ID Repo- Might not be there in ID Repo as well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Repo- need to know </t>
+  </si>
+  <si>
+    <t>Under processing
+Processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under processing
+Processed
+</t>
+  </si>
+  <si>
+    <t>Reg proc
+Archival policy</t>
+  </si>
+  <si>
+    <t>E-UIN Generation</t>
+  </si>
+  <si>
+    <t>there shud be a label as Res_Service
+Reg Client packet needs to be understood
+Service from Reg proc needs to be developed</t>
+  </si>
+  <si>
+    <t>When UIN IS needed to be generated
+1.the Acknowledgment from Print queue- what needs to be done
+Time period 
+2. If there is a print failure- no need to handle from MOSIP
+User Story ?</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1314,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1884,52 +1925,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:S16" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
-  <autoFilter ref="A2:S16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{BA6CF5C0-D673-4221-AF2B-15571968A0FE}" name="estimate(PDs)-CUT" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{01BC0E2E-2278-4657-B425-1B825351D8EF}" name="clarifications needed" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:T16" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+  <autoFilter ref="A2:T16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{BA6CF5C0-D673-4221-AF2B-15571968A0FE}" name="estimate(PDs)-CUT" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{01BC0E2E-2278-4657-B425-1B825351D8EF}" name="clarifications needed" dataDxfId="20">
       <calculatedColumnFormula>- Finger print type needed(individual fingers needed?)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A2BAB483-8C1C-469A-95FE-F84C2AD42ACB}" name="Module Dependency" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{A2BAB483-8C1C-469A-95FE-F84C2AD42ACB}" name="Module Dependency" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{8032070F-A4AE-499B-8E82-1924CEADE8D6}" name="Reg Proc" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A2:M5" xr:uid="{BAEF4897-0E77-4DB8-9DBC-4FCFFE073206}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2313,13 +2355,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2343,10 +2385,11 @@
     <col min="17" max="17" width="24.6328125" style="17" customWidth="1"/>
     <col min="18" max="18" width="43.1796875" style="17" customWidth="1"/>
     <col min="19" max="19" width="23.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="17"/>
+    <col min="20" max="20" width="32.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>34</v>
       </c>
@@ -2366,7 +2409,7 @@
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>63</v>
       </c>
@@ -2424,8 +2467,11 @@
       <c r="S2" s="21" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="T2" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -2468,7 +2514,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="319" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="319" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -2508,8 +2554,11 @@
       <c r="S4" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="174" x14ac:dyDescent="0.35">
+      <c r="T4" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -2549,8 +2598,11 @@
       <c r="S5" s="37" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="174" x14ac:dyDescent="0.35">
+      <c r="T5" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -2587,8 +2639,11 @@
       <c r="S6" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T6" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -2628,8 +2683,11 @@
       <c r="S7" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="T7" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -2661,11 +2719,14 @@
       <c r="Q8" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="S8" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="174" x14ac:dyDescent="0.35">
+      <c r="S8" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -2706,8 +2767,11 @@
       <c r="S9" s="17" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="145" x14ac:dyDescent="0.35">
+      <c r="T9" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -2744,8 +2808,11 @@
       <c r="R10" s="17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="T10" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -2781,7 +2848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -2804,7 +2871,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>10</v>
       </c>
@@ -2830,7 +2897,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:19" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>11</v>
       </c>
@@ -2856,7 +2923,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>12</v>
       </c>
@@ -2880,7 +2947,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>13</v>
       </c>

--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D6820BA-0845-4BD5-8295-D015A9D9068B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5BFD452-5D2F-4964-92E5-6DAC60E823BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="128">
   <si>
     <t>Feature</t>
   </si>
@@ -742,12 +742,36 @@
 2. If there is a print failure- no need to handle from MOSIP
 User Story ?</t>
   </si>
+  <si>
+    <t>OTP Auth
+Demo Auth(name, age,address etc)
+Finger Auth
+Iris Auth
+Face Auth
+KYC Auth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Why do we have a size check here? Shouldn’t it be stopped at the initial stage - Say at Reg. Client/Reg. Processor? Isn't it a valid scenario that a backward family may have only one contact number and if the UIN is lost, then we are restricting the UIN retrieval online based on this restriction?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without UIN how to get OTP Authentication?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +844,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1314,10 +1345,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1586,6 +1614,12 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1925,53 +1959,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:T16" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
-  <autoFilter ref="A2:T16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{BA6CF5C0-D673-4221-AF2B-15571968A0FE}" name="estimate(PDs)-CUT" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{01BC0E2E-2278-4657-B425-1B825351D8EF}" name="clarifications needed" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:U16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+  <autoFilter ref="A2:U16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{BA6CF5C0-D673-4221-AF2B-15571968A0FE}" name="estimate(PDs)-CUT" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{01BC0E2E-2278-4657-B425-1B825351D8EF}" name="clarifications needed" dataDxfId="21">
       <calculatedColumnFormula>- Finger print type needed(individual fingers needed?)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A2BAB483-8C1C-469A-95FE-F84C2AD42ACB}" name="Module Dependency" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{8032070F-A4AE-499B-8E82-1924CEADE8D6}" name="Reg Proc" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{A2BAB483-8C1C-469A-95FE-F84C2AD42ACB}" name="Module Dependency" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{8032070F-A4AE-499B-8E82-1924CEADE8D6}" name="Reg Proc" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{3D38D082-6AE5-4E43-9668-964B409D450F}" name="IDA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D261C990-574C-44B0-B2A4-4E12A435F5AB}" name="Table22" displayName="Table22" ref="A2:M5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A2:M5" xr:uid="{BAEF4897-0E77-4DB8-9DBC-4FCFFE073206}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6DCBFD04-8A3E-4A30-A014-07B489DA1998}" name="S. No." dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{DA85683F-5AE6-4B0B-BDB9-CCA785B4031E}" name="Components" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{02F093E0-C2BE-4499-ADA4-B3708D9D1D6E}" name="JIRA IDs" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{93D929DB-97CA-40BE-B77A-E749136665CB}" name="Feature" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{47FB35EA-D011-4701-B01A-B34A09B7DB82}" name="Effort (PD)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B7C7BF2D-D8B3-4A4E-9FDC-2A6E0303458A}" name="Story Title" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{EE3A7D6E-99EA-41B3-A2C9-65B44618CF6A}" name="Acceptance Criteria" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{8E8F774E-3E78-49D3-BD88-480AADE2B825}" name="FR/TR/NFR" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3336B49A-25C8-4A02-B22D-3229BCFF027E}" name="Dependency" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E063CDE3-0503-45CF-936E-9B3B046415F8}" name="Owner" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{02C2D061-4417-4DDC-BA78-9B92106998BC}" name="Status" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{FA973B62-6E65-4481-AA74-D4835B5234DD}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{5A4F4747-5110-497B-9B18-5AF35ADEAF5C}" name="Sprint" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2355,13 +2390,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2386,10 +2421,11 @@
     <col min="18" max="18" width="43.1796875" style="17" customWidth="1"/>
     <col min="19" max="19" width="23.54296875" style="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="17"/>
+    <col min="21" max="21" width="21.6328125" style="17" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>34</v>
       </c>
@@ -2409,7 +2445,7 @@
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
     </row>
-    <row r="2" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>63</v>
       </c>
@@ -2470,8 +2506,11 @@
       <c r="T2" s="21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="U2" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -2513,8 +2552,11 @@
       <c r="S3" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="319" x14ac:dyDescent="0.35">
+      <c r="U3" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="319" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -2558,7 +2600,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="174" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -2583,7 +2625,7 @@
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="41" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="O5" s="44" t="s">
         <v>90</v>
@@ -2602,7 +2644,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="174" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -2643,7 +2685,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -2687,7 +2729,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -2726,7 +2768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="174" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -2771,7 +2813,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -2812,7 +2854,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -2848,7 +2890,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -2871,7 +2913,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>10</v>
       </c>
@@ -2897,7 +2939,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:20" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>11</v>
       </c>
@@ -2923,7 +2965,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>12</v>
       </c>
@@ -2947,7 +2989,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>13</v>
       </c>
@@ -3170,41 +3212,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3411,32 +3418,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B8CA9A-DD82-42AF-8D7A-A732A1A6A7F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3453,4 +3470,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5BFD452-5D2F-4964-92E5-6DAC60E823BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89552F4F-B9AB-454D-9DE1-61017098A4D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>Feature</t>
   </si>
@@ -263,45 +263,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1. Receive Adress Update request
-2. Input:  UIN/VID
-3. If UIN/VID not found/does not match, provide error message
-4. If UIN/VID found and matches:
-- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
-- If number not linked with UIN/VID, then trigger error message
-5. Process:
-a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> If OTP authentication is successful,
- - Receive parameters selected for Update
-- System to identify Applicant Type based on provided UIN/VID and present the form with mandatory attributes to be captured for Update (Along with doc to be uploaded)
-- Receive the provided/Updated information (Incl. Docs)
-- Render message that "Update request has been recieved and will be processed"
-- Record to be updated through Reg. Processor (Stages as defined)
-&gt; Design to accommodate plug-in of various stages prior to direct DB update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-b. If OTP authentication fails, trigger error message</t>
-    </r>
-  </si>
-  <si>
     <t>1. Input: RID
 2. If RID not found and/or data provided does not match, trigger  error message
 3. If RID found and data provided matches:
@@ -417,9 +378,6 @@
   </si>
   <si>
     <t>As the MOSIP system, I should be able to process a request to view auth requests history for a specific UIN/VID</t>
-  </si>
-  <si>
-    <t>Initiate UIN Update - Address</t>
   </si>
   <si>
     <t xml:space="preserve">Research info </t>
@@ -614,11 +572,6 @@
 Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
   </si>
   <si>
-    <t>Can update any demo graphic information, validations should be done by Portal.
-Should cater to updation of demographic details as done by Reg. client
-Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
-  </si>
-  <si>
     <t>think and come back on what all status can the request have and we can rationalise. 
 Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
   </si>
@@ -634,15 +587,7 @@
   </si>
   <si>
     <t>RS-10
-Reg proc-20</t>
-  </si>
-  <si>
-    <t>RS-10
 ID Repo-20</t>
-  </si>
-  <si>
-    <t>RS-10
-Reg proc-10</t>
   </si>
   <si>
     <t>No Additional estimate
@@ -695,21 +640,11 @@
     <t>IDA</t>
   </si>
   <si>
-    <t>Reg proc</t>
-  </si>
-  <si>
     <t>IDA
 Reg Proc</t>
   </si>
   <si>
-    <t>Reg PRoc</t>
-  </si>
-  <si>
     <t>Reg Proc</t>
-  </si>
-  <si>
-    <t>No Mapping of such kind from Reg Processor
-ID Repo- Might not be there in ID Repo as well</t>
   </si>
   <si>
     <t xml:space="preserve">ID Repo- need to know </t>
@@ -765,6 +700,88 @@
       </rPr>
       <t>without UIN how to get OTP Authentication?</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No Mapping of such kind from Reg Processor
+ID Repo- Might not be there in ID Repo as well
+inline with Archival policy
+</t>
+  </si>
+  <si>
+    <t>Reg proc
+Packet creation is needed?</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Receive Address Update request
+2. Input:  UIN/VID
+3. If UIN/VID not found/does not match, provide error message
+4. If UIN/VID found and matches:
+- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
+- If number not linked with UIN/VID, then trigger error message
+5. Process:
+a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If OTP authentication is successful,
+ - Receive parameters selected for Update
+- System to identify Applicant Type based on provided UIN/VID and present the form with mandatory attributes to be captured for Update (Along with doc to be uploaded)
+- Receive the provided/Updated information (Incl. Docs)
+- Render message that "Update request has been recieved and will be processed"
+- Record to be updated through Reg. Processor (Stages as defined)
+&gt; Design to accommodate plug-in of various stages prior to direct DB update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b. If OTP authentication fails, trigger error message</t>
+    </r>
+  </si>
+  <si>
+    <t>Can update any demo graphic information, validations should be done by Portal.
+Should cater to updation of demographic details as done by Reg. client?
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>25
+Reg proc-25 PD(all)</t>
+  </si>
+  <si>
+    <t>RS-10
+Reg proc-10
+Reg Proc- 20(All)</t>
+  </si>
+  <si>
+    <t>Reg Proc- considered in above feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg Proc- 12(All for UIN)
+Reg Proc- 5(All for VID)
+</t>
+  </si>
+  <si>
+    <t>Reg proc-5(ALL )+ IDA effort</t>
+  </si>
+  <si>
+    <t>RS-10
+Reg proc-20
+Reg Proc-40(All)+ Reg Client effort</t>
+  </si>
+  <si>
+    <t>Reg Proc- 107</t>
   </si>
 </sst>
 </file>
@@ -2390,13 +2407,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2447,7 +2464,7 @@
     </row>
     <row r="2" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -2486,28 +2503,28 @@
         <v>24</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
@@ -2517,14 +2534,14 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -2535,25 +2552,25 @@
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="17">
         <v>10</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="U3" s="37" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="319" x14ac:dyDescent="0.35">
@@ -2563,14 +2580,14 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2579,25 +2596,25 @@
       <c r="L4" s="24"/>
       <c r="M4" s="20"/>
       <c r="N4" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="17">
         <v>10</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="T4" s="37" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="174" x14ac:dyDescent="0.35">
@@ -2607,41 +2624,41 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="41" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="37" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T5" s="37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="174" x14ac:dyDescent="0.35">
@@ -2651,38 +2668,38 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2692,14 +2709,14 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -2708,25 +2725,25 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
       <c r="N7" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
@@ -2743,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -2752,20 +2769,20 @@
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
       <c r="N8" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="37" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="T8" s="37" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="174" x14ac:dyDescent="0.35">
@@ -2782,7 +2799,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>26</v>
@@ -2797,20 +2814,20 @@
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="T9" s="37" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="145" x14ac:dyDescent="0.35">
@@ -2820,11 +2837,11 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>38</v>
@@ -2836,22 +2853,25 @@
       <c r="L10" s="14"/>
       <c r="M10" s="19"/>
       <c r="N10" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
@@ -2865,29 +2885,29 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2895,7 +2915,7 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="14"/>
@@ -2910,7 +2930,7 @@
       <c r="O12" s="16"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
@@ -2932,7 +2952,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="15"/>
@@ -2951,14 +2971,14 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="16"/>
@@ -2972,7 +2992,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2982,7 +3002,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="16"/>
@@ -2996,7 +3016,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -3006,7 +3026,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="16"/>
@@ -3015,7 +3035,12 @@
     </row>
     <row r="18" spans="17:17" x14ac:dyDescent="0.35">
       <c r="Q18" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q20" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3061,7 +3086,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -3077,7 +3102,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -3483,16 +3508,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/requirements/Resident Services_Requirements.xlsx
+++ b/docs/requirements/Resident Services_Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74E7A1AA-AE65-4F94-A5A2-9EE575F0B308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89552F4F-B9AB-454D-9DE1-61017098A4D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>Feature</t>
   </si>
@@ -130,37 +130,11 @@
   </si>
   <si>
     <t>Status rendered will be static and fixed, as in Aadhaar - Please confirm?</t>
-  </si>
-  <si>
-    <t>1. Input:  UIN/VID, Security Code
-2. Process:
-a. If UIN found and Security Code matches:
-- Allow to select: Auth Type (All, Demo, Biometric, OTP, Demo &amp; Bio, Demo &amp; OTP, Bio &amp; OTP)
-- Allow to select: Date Range (6 months in the past to current date)
-- Allow to select number of records (Max 50)
-- Allow to enter OTP
-b. If OTP authentication is successful:
-- Display auth history as per selection criteria
-- Allow to download - pdf
-b. If UIN/VID is not found, trigger error message accordingly
-c. If OTP authentication fails, trigger error message</t>
   </si>
   <si>
     <t>Current Message in Aadhaar/UIDAI:
 Your Biometric Lock is currently disabled. By enabling lock, you can lock your biometrics(fingerprint &amp; Iris) against any biometric authentication attempt.Users of this System are cautioned to use this facility with care to prevent denial of Authentication services.
 To Enable Biometric Lock please enter security code and then click on 'Enable' Button.</t>
-  </si>
-  <si>
-    <t>Parameters displayed in Aadhaar/UIDAI:
-1. Sno
-2. Auth Modality: OTP
-3. Date 
-4. Time 
-5. AUA Name: UIDAI Online Services 
-6. UIDAI Response Code: 6ceda1a2e7e54c8eb6d359f7373a1bd7
-7. AUA Transaction ID: Biometric:0002980000:20190219111631161
-8. Authentication Response: Success
-9. UIDAI Error Code: NA</t>
   </si>
   <si>
     <r>
@@ -226,16 +200,6 @@
 c. If OTP authentication fails, trigger error message/notification</t>
   </si>
   <si>
-    <t>1. Input: RID and Security Code
-2. If RID found and data matches (Security Code), respond with status:
-a. We are yet to receive your RID for UIN generation. Please check back with us after a few days
-b. Your UIN generation in under process. Please check back with us after a few days
-c. Your UIN has been Generated.
-d. Your application is rejected due to a Technical Issue. Please revisit a nearby Registration Center for further details
-e.  Your application is rejected due to an existing duplicate application. Please revisit a nearby Registration Center for further process
-3. If RID not found, respond with error message</t>
-  </si>
-  <si>
     <t>1. Input: UIN/VID and Security Code
 2. Authenticate the User with Phone Number/ OTP authentication
 3. Process: 
@@ -250,9 +214,6 @@
   </si>
   <si>
     <t>As the MOSIP system, I should be able to generate VID as requested, for a specific UIN</t>
-  </si>
-  <si>
-    <t>Lock/Unlock UIN for each Auth Type</t>
   </si>
   <si>
     <t>As the MOSIP system, I should be able to process a request to re-print UIN</t>
@@ -302,8 +263,457 @@
     </r>
   </si>
   <si>
+    <t>1. Input: RID
+2. If RID not found and/or data provided does not match, trigger  error message
+3. If RID found and data provided matches:
+- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
+- If number not linked with UIN/VID, then trigger error message
+3. Process:
+a. If OTP authentication is successful, respond with associated status:
+- Your UIN Update in under process. Please check back with us after a few days
+- Your UIN has been Completed
+- Your Update request is rejected due to a Technical Issue. Please revisit a nearby Registration Center for further details
+-  Your Update request is rejected due to msising/mis-match in information. Please revisit a nearby Registration Center for further process
+b. If OTP authentication fails, trigger error message</t>
+  </si>
+  <si>
+    <t>1. Input:  UIN/VID
+2. If UIN/VID not found and/or data provided does not match, trigger  error message
+3. If UIN/VID found and data provided matches:
+- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
+- If number not linked with UIN/VID, then trigger error message
+4. Process:
+a1. If OTP authentication is successful, display the current status (Locked/Un-locked) of UIN for each Auth Type as listed below
+- Demographic
+- Biometrics (FP/Iris/Face/All - Allow locking, un-locking combinations as preferred)
+- KYC
+a2. Allow to update status (Enable/Disable) and provide message/confirmation accordingly
+b. If OTP authentication fails, trigger error message</t>
+  </si>
+  <si>
+    <t>Retrieve Lost RID</t>
+  </si>
+  <si>
+    <t>Retrieve Lost UIN</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to process a request to retrieve RID</t>
+  </si>
+  <si>
+    <t>Request re-print of UIN</t>
+  </si>
+  <si>
+    <t>&gt; This has been de-scoped as suggested by Sasi, due to Secutiry reasons</t>
+  </si>
+  <si>
+    <t>1. Input:  UIN/VID and Security Code
+2. Authenticate the User with Phone Number/OTP Authentication
+3. Process:
+a. If OTP authentication is successful and UIN found,
+- Present the option to enter old PIN and new PIN 
+- Receive old and new PIN 
+- If old PIN matches and new PIN matches the policy (Refer PIN creation rules) &gt; Confirm Update and trigger notification. Also, store new PIN against the provided UIN
+- If old PIN does not match, trigger error message
+b. If UIN/VID is not found/in case of data mis-match, trigger error message accordingly
+c. If OTP authentication fails, trigger error message</t>
+  </si>
+  <si>
     <r>
-      <t>1. Receive Adress Update request
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; This has been de-scoped as suggested by Sasi, due to Secutiry reasons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+APIs developed by IDA:
+a) An aAPI to store the static pin set by the user using Resident Services
+b) An API to generate/regenerate a VID on user’s request</t>
+    </r>
+  </si>
+  <si>
+    <t>Download e-UIN</t>
+  </si>
+  <si>
+    <t>To prevent mis-use where 1 mobile has been used for too many registrations, the country defines average size of family (Default of MOSIP is 5) and when a mobile number is attached to more than average size of family, in such cases Retrieve via OTP option is not executable and person is encouraged to visit a registration centre for Option 1  - Via Registration Client software to find their RID/UID</t>
+  </si>
+  <si>
+    <t>1. Input:  Full Name, Mobile Number/E-Mail ID, Postal Code
+2. If data does not match, provide error message
+3. If data matches,  verify if mobile is associated to more than the average size of the family
+4. If validation passed, send  OTP to registered number and authenticate with OTP
+a. If OTP authentication fails, trigger error message
+b. If OTP authentication is successful, then:
+&gt; Retreive and generate RID acknowledgement (pdf) &gt; Also provide success message: Congratulation! Your RID has been retrieved
+&gt; Trigger notification with link of the pdf to the registered number/email
+&gt; RID pdf should be password protected (Postal Code)</t>
+  </si>
+  <si>
+    <t>1. Input:  Full Name, Mobile Number/E-Mail ID, Postal Code
+2. If data does not match, provide error message
+3. 3. If data matches,  verify if mobile is associated to more than the average size of the family
+4. If validation passed, send OTP to registered number and authenticate with OTP
+a. If OTP authentication fails, trigger error message
+b. If OTP authentication is successful, then:
+&gt; Retreive and generate e-UIN (pdf) &gt; Also provide success message: Congratulation! Your UIN has been retrieved
+&gt; Trigger notification with link of the pdf to the registered number/email
+&gt; e-UIN should be password protected (Postal Code)</t>
+  </si>
+  <si>
+    <t>S. No.</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to enable download of e-UIN</t>
+  </si>
+  <si>
+    <t>As the MOSIP system, I should be able to process a request to view auth requests history for a specific UIN/VID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research info </t>
+  </si>
+  <si>
+    <t>Resident can download e-Aadhaar using 28 digit enrolment no. along with Full Name and Pin code. In this download process OTP is received on registered mobile no. Resident can also use TOTP to download e-Aadhaar instead of OTP. TOTP can generated using mAadhaar mobile Application.
+e-Aadhaar is a password protected electronic copy of Aadhaar, which is digitally signed by the competent Authority of UIDAI.</t>
+  </si>
+  <si>
+    <t>In addition to English you can update/do correction in your address in any of the following languages:
+Assamese, Bengali, English, Gujarati, Hindi, Kannada, Malayalam, Marathi, Odia, Punjabi, Tamil, Telugu and Urdu.
+Q:I do not have any document proof of my address. Can I still update my address in my Aadhaar? Address Verifier concept
+Q:Does submission of request guarantee Updation of information?
+Submission of information for update does not guarantee update of Aadhaar data. The information submitted is subject to verification and validation. Furnishing of incorrect information/suppression of information would lead to rejection of application.</t>
+  </si>
+  <si>
+    <t>1. Input:  UIN/VID 
+3. If UIN/VID not found/does not match, provide error message
+4. If UIN/VID found and matches:
+- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
+- If number not linked with RID/UIN/VID, then trigger error message
+5. Process:
+a. If OTP authentication is successful:
+- Retreive and generate e-UIN (pdf) &gt; Also provide success message: Congratulation! Your UIN has been retrieved. Trigger a link of the pdf to the registered number/email ID?
+- e-UIN should be password protected (Postal Code/combination of Name-DoB - TBD)
+- Send request to print queue should be customized by the SI if required
+b. If OTP authentication fails, trigger error message</t>
+  </si>
+  <si>
+    <r>
+      <t>Parameters displayed in Aadhaar/UIDAI:
+1. Sno
+2. Auth Modality: OTP
+3. Date 
+4. Time 
+5. AUA Name: UIDAI Online Services 
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. UIDAI Response Code: 6ceda1a2e7e54c8eb6d359f7373a1bd7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7. AUA Transaction ID: Biometric:0002980000:20190219111631161
+8. Authentication Response: Success
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. UIDAI Error Code: NA</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Input:  UIN/VID, Security Code
+2. Process:
+a. If UIN found and Security Code matches:
+- Allow to select: Auth Type (All, Demo, Biometric, OTP, Demo &amp; Bio, Demo &amp; OTP, Bio &amp; OTP)
+- Allow to select: Date Range (6 months in the past to current date)
+- Allow to select number of records (Max 50)
+- Allow to enter OTP
+b. If OTP authentication is successful:
+- Display auth history as per selection criteria
+- Allow to download - pdf??
+b. If UIN/VID is not found, trigger error message accordingly
+c. If OTP authentication fails, trigger error message</t>
+  </si>
+  <si>
+    <t>check for VID status
+Number of attempts left
+Validity
+- *Notification service is required here</t>
+  </si>
+  <si>
+    <t>Aadhar asks for Payment to perform Re-print
+"Order Aadhaar Reprint" is a new service launched by UIDAI w.e.f. 01-12-2018 on Pilot basis which facilitates the residents of India to get their Aadhaar letter reprint by paying nominal charges, in case, Aadhaar letter of resident has been lost, misplaced or if they want a new copy. Residents who do not have registered mobile number can also "Order Aadhaar Reprint" using Non-Registered / Alternate Mobile Number.
+- This feature part of Reg Proc(though not Re-print but Print of UIN)? reuse 
+* Notification service is required</t>
+  </si>
+  <si>
+    <t>Service to authenticate with non registered mobile number on which the OTP can be received</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MOSIP - Resident Services </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*** Addressed by Kernel module ***</t>
+    </r>
+  </si>
+  <si>
+    <t>Address Validation Letter</t>
+  </si>
+  <si>
+    <t>Not scoped</t>
+  </si>
+  <si>
+    <t>Not scoped - Aadhar provides option to enter non registered mobile number on which the OTP can be received.</t>
+  </si>
+  <si>
+    <t>Clarification Description</t>
+  </si>
+  <si>
+    <t>1. Why do we have a size check here? Shouldn’t it be stopped at the initial stage - Say at Reg. Client/Reg. Processor? Isn't it a valid scenario that a backward family may have only one contact number and if the UIN is lost, then we are restricting the UIN retrieval online based on this restriction?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. What is the use case of reprinting? Will there be a cost associated to it? If not can it be abused by the individual?will there be a limit on number times an individual can access it? If cost is associated, will there be a check performed for the payment? external
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. what is the use case of locking specific Biometric auths and combinations?
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. What is the process after submission of UIN Update request? Is there a manual intervention required or should all UIN Update requests from Resident Services be honored? Go through the similar set of validations like when an update is initiated from Reg. Client?</t>
+  </si>
+  <si>
+    <t>1. What are the Statuses required?</t>
+  </si>
+  <si>
+    <t>1. Input: RID
+2. If RID found and data matches (Security Code), respond with status:
+a. We are yet to receive your RID for UIN generation. Please check back with us after a few days
+b. Your UIN generation in under process. Please check back with us after a few days
+c. Your UIN has been Generated.
+d. Your application is rejected due to a Technical Issue. Please revisit a nearby Registration Center for further details
+e.  Your application is rejected due to an existing duplicate application. Please revisit a nearby Registration Center for further process
+3. If RID not found, respond with error message</t>
+  </si>
+  <si>
+    <t>1. e-UIN should be password protected - What should the password be - Postal Code? Should this be configurable while the default for current implementation could be set to Postal Code?</t>
+  </si>
+  <si>
+    <t>Carifications Needed</t>
+  </si>
+  <si>
+    <t>User is travelling out of country, personal choice, doesn,t want misuse. Can be anything. It's a user choice. That is the use case. 
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>User likes multiple copies, use lost old copy. Can be anything. Provision to keep track on no of reprint required, country can reject free request after a X upper limit, X can be zero, country to allow payment based reprint, thus integration point with payment gateway will be required for SI customisation etc. 
+validation and the Interface for Payment gateway will be part of Resident portal(business Logic)- by SI
+The service should cater to any service received for Re-printing
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>think and come back on what all status can the request have and we can rationalise. 
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>YES. Correct understanding. 
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>estimate(PDs)-CUT</t>
+  </si>
+  <si>
+    <t>Send OTP</t>
+  </si>
+  <si>
+    <t>RS-10
+ID Repo-20</t>
+  </si>
+  <si>
+    <t>No Additional estimate
+same as previous</t>
+  </si>
+  <si>
+    <t>20
+ID Repo- effort?</t>
+  </si>
+  <si>
+    <t>RS-10
+IDA-10</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>RS-115 + other modules-60</t>
+  </si>
+  <si>
+    <t>clarifications needed</t>
+  </si>
+  <si>
+    <t>weak authentication</t>
+  </si>
+  <si>
+    <t>Lock/Unlock UIN/VID for each Auth Type</t>
+  </si>
+  <si>
+    <t>how do I take RID by Mobile/email or name etc.</t>
+  </si>
+  <si>
+    <t>packet creation is required
+Document for Reference is needed for upload
+Acknowledgemnt generation</t>
+  </si>
+  <si>
+    <t>Send Notification is required?</t>
+  </si>
+  <si>
+    <t>Finger print type needed(individual fingers needed?)
+Can supervisor or Ro lock his auth- impact
+why mobile/email id is needed 
+Feasibility of the Authentication for Multiple authentication</t>
+  </si>
+  <si>
+    <t>Module Dependency</t>
+  </si>
+  <si>
+    <t>IDA</t>
+  </si>
+  <si>
+    <t>IDA
+Reg Proc</t>
+  </si>
+  <si>
+    <t>Reg Proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Repo- need to know </t>
+  </si>
+  <si>
+    <t>Under processing
+Processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under processing
+Processed
+</t>
+  </si>
+  <si>
+    <t>Reg proc
+Archival policy</t>
+  </si>
+  <si>
+    <t>E-UIN Generation</t>
+  </si>
+  <si>
+    <t>there shud be a label as Res_Service
+Reg Client packet needs to be understood
+Service from Reg proc needs to be developed</t>
+  </si>
+  <si>
+    <t>When UIN IS needed to be generated
+1.the Acknowledgment from Print queue- what needs to be done
+Time period 
+2. If there is a print failure- no need to handle from MOSIP
+User Story ?</t>
+  </si>
+  <si>
+    <t>OTP Auth
+Demo Auth(name, age,address etc)
+Finger Auth
+Iris Auth
+Face Auth
+KYC Auth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Why do we have a size check here? Shouldn’t it be stopped at the initial stage - Say at Reg. Client/Reg. Processor? Isn't it a valid scenario that a backward family may have only one contact number and if the UIN is lost, then we are restricting the UIN retrieval online based on this restriction?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without UIN how to get OTP Authentication?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No Mapping of such kind from Reg Processor
+ID Repo- Might not be there in ID Repo as well
+inline with Archival policy
+</t>
+  </si>
+  <si>
+    <t>Reg proc
+Packet creation is needed?</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Receive Address Update request
 2. Input:  UIN/VID
 3. If UIN/VID not found/does not match, provide error message
 4. If UIN/VID found and matches:
@@ -341,211 +751,44 @@
     </r>
   </si>
   <si>
-    <t>1. Input: RID
-2. If RID not found and/or data provided does not match, trigger  error message
-3. If RID found and data provided matches:
-- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
-- If number not linked with UIN/VID, then trigger error message
-3. Process:
-a. If OTP authentication is successful, respond with associated status:
-- Your UIN Update in under process. Please check back with us after a few days
-- Your UIN has been Completed
-- Your Update request is rejected due to a Technical Issue. Please revisit a nearby Registration Center for further details
--  Your Update request is rejected due to msising/mis-match in information. Please revisit a nearby Registration Center for further process
-b. If OTP authentication fails, trigger error message</t>
-  </si>
-  <si>
-    <t>1. Input:  UIN/VID
-2. If UIN/VID not found and/or data provided does not match, trigger  error message
-3. If UIN/VID found and data provided matches:
-- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
-- If number not linked with UIN/VID, then trigger error message
-4. Process:
-a1. If OTP authentication is successful, display the current status (Locked/Un-locked) of UIN for each Auth Type as listed below
-- Demographic
-- Biometrics (FP/Iris/Face/All - Allow locking, un-locking combinations as preferred)
-- KYC
-a2. Allow to update status (Enable/Disable) and provide message/confirmation accordingly
-b. If OTP authentication fails, trigger error message</t>
-  </si>
-  <si>
-    <t>1. Input:  RID/UIN/VID 
-3. If RID/UIN/VID not found/does not match, provide error message
-4. If RID/UIN/VID found and matches:
-- If number linked with UIN/VID, then send  OTP to registered number and authenticate with OTP
-- If number not linked with RID/UIN/VID, then trigger error message
-5. Process:
-a. If OTP authentication is successful:
-- Retreive and generate e-UIN (pdf) &gt; Also provide success message: Congratulation! Your UIN has been retrieved. Trigger a link of the pdf to the registered number/email ID?
-- e-UIN should be password protected (Postal Code/combination of Name-DoB - TBD)
-- Send request to print queue should be customized by the SI if required
-b. If OTP authentication fails, trigger error message</t>
-  </si>
-  <si>
-    <t>Retrieve Lost RID</t>
-  </si>
-  <si>
-    <t>Retrieve Lost UIN</t>
-  </si>
-  <si>
-    <t>As the MOSIP system, I should be able to process a request to retrieve RID</t>
-  </si>
-  <si>
-    <t>Request re-print of UIN</t>
-  </si>
-  <si>
-    <t>&gt; This has been de-scoped as suggested by Sasi, due to Secutiry reasons</t>
-  </si>
-  <si>
-    <t>1. Input:  UIN/VID and Security Code
-2. Authenticate the User with Phone Number/OTP Authentication
-3. Process:
-a. If OTP authentication is successful and UIN found,
-- Present the option to enter old PIN and new PIN 
-- Receive old and new PIN 
-- If old PIN matches and new PIN matches the policy (Refer PIN creation rules) &gt; Confirm Update and trigger notification. Also, store new PIN against the provided UIN
-- If old PIN does not match, trigger error message
-b. If UIN/VID is not found/in case of data mis-match, trigger error message accordingly
-c. If OTP authentication fails, trigger error message</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; This has been de-scoped as suggested by Sasi, due to Secutiry reasons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-APIs developed by IDA:
-a) An aAPI to store the static pin set by the user using Resident Services
-b) An API to generate/regenerate a VID on user’s request</t>
-    </r>
-  </si>
-  <si>
-    <t>Download e-UIN</t>
-  </si>
-  <si>
-    <t>To prevent mis-use where 1 mobile has been used for too many registrations, the country defines average size of family (Default of MOSIP is 5) and when a mobile number is attached to more than average size of family, in such cases Retrieve via OTP option is not executable and person is encouraged to visit a registration centre for Option 1  - Via Registration Client software to find their RID/UID</t>
-  </si>
-  <si>
-    <t>1. Input:  Full Name, Mobile Number/E-Mail ID, Postal Code
-2. If data does not match, provide error message
-3. If data matches,  verify if mobile is associated to more than the average size of the family
-4. If validation passed, send  OTP to registered number and authenticate with OTP
-a. If OTP authentication fails, trigger error message
-b. If OTP authentication is successful, then:
-&gt; Retreive and generate RID acknowledgement (pdf) &gt; Also provide success message: Congratulation! Your RID has been retrieved
-&gt; Trigger notification with link of the pdf to the registered number/email
-&gt; RID pdf should be password protected (Postal Code)</t>
-  </si>
-  <si>
-    <t>1. Input:  Full Name, Mobile Number/E-Mail ID, Postal Code
-2. If data does not match, provide error message
-3. 3. If data matches,  verify if mobile is associated to more than the average size of the family
-4. If validation passed, send OTP to registered number and authenticate with OTP
-a. If OTP authentication fails, trigger error message
-b. If OTP authentication is successful, then:
-&gt; Retreive and generate e-UIN (pdf) &gt; Also provide success message: Congratulation! Your UIN has been retrieved
-&gt; Trigger notification with link of the pdf to the registered number/email
-&gt; e-UIN should be password protected (Postal Code)</t>
-  </si>
-  <si>
-    <t>S. No.</t>
-  </si>
-  <si>
-    <t>As the MOSIP system, I should be able to enable download of e-UIN</t>
-  </si>
-  <si>
-    <t>As the MOSIP system, I should be able to process a request to view auth requests history for a specific UIN/VID</t>
-  </si>
-  <si>
-    <t>Initiate UIN Update - Address</t>
-  </si>
-  <si>
-    <t>clarifications needed</t>
-  </si>
-  <si>
-    <t>1. if demo auth is locked? What happens?
-2. what is use case of providing a RID PDF, why not just a RID number?
-3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
-  </si>
-  <si>
-    <t>1. Is this requirement still part of Resident services?
-2. if demo auth is locked? What happens?
-3. why do we have a size check here? Shouldn’t it be stopped at the initial stage?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Is this requirement a subset of what registration client does for update? If so can there be an reuse of the feature?
-2. in future if there can be many parameters which can be provisioned for updated? What can be done and is Resident services capable of doing for all? check for scalability?
+    <t>Can update any demo graphic information, validations should be done by Portal.
+Should cater to updation of demographic details as done by Reg. client?
+Check if OTP authentication is allowed or not- (if a Mobile Numberis associated with multiple UIN/VID then the country can term it as Weak based on the number)</t>
+  </si>
+  <si>
+    <t>25
+Reg proc-25 PD(all)</t>
+  </si>
+  <si>
+    <t>RS-10
+Reg proc-10
+Reg Proc- 20(All)</t>
+  </si>
+  <si>
+    <t>Reg Proc- considered in above feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reg Proc- 12(All for UIN)
+Reg Proc- 5(All for VID)
 </t>
   </si>
   <si>
-    <t>1.what is security code?</t>
-  </si>
-  <si>
-    <t>1. why is RID an input here and not UIN?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. what is the use case of locking specific Biometric auths and combinations?
-2. What is the data taken as input from the Individual?
-3. Is there a mechanism to lock OTP Authentication?
-4. need more clarity on a2
-5. Can Lock/Unlock will be perfomed only by OTP authentication of Mobile number or can it be done by email as well?
-6. Need to check with IDA on the process of authentication done, so that the gaps could be covered
-7. Can both UIN and VID be locked at the same time?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research info </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident can lock his UID number Via Resident Portal, by doing this Resident cannot perform any sort of Authentication by using UID, UID Token &amp; ANCS Token for Biometric, Demographic &amp; OTP Based authentication. Once UID is locked resident can authenticate using 16 digit VID Number for all forms of authentication (Demo, Bio &amp; OTP).
-</t>
-  </si>
-  <si>
-    <t>1. What is the use case of reprinting? Will there be a cost associated to it? If not can it be abused by the individual?will there be a limit on number times an individual can access it? If cost is associated, will there be a check performed for the payment?
-2. Why RID is accepted as an input parameter? What is the use case.
-3. Aadhar provides option to enter non registered mobile number on which the OTP can be received.</t>
-  </si>
-  <si>
-    <t>Aadhar asks for Payment to perform Re-print
-"Order Aadhaar Reprint" is a new service launched by UIDAI w.e.f. 01-12-2018 on Pilot basis which facilitates the residents of India to get their Aadhaar letter reprint by paying nominal charges, in case, Aadhaar letter of resident has been lost, misplaced or if they want a new copy. Residents who do not have registered mobile number can also "Order Aadhaar Reprint" using Non-Registered / Alternate Mobile Number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In addition to English you can update/do correction in your address in any of the following languages:
-Assamese, Bengali, English, Gujarati, Hindi, Kannada, Malayalam, Marathi, Odia, Punjabi, Tamil, Telugu and Urdu.
-</t>
-  </si>
-  <si>
-    <t>e-UIN should be password protected (Postal Code/combination of Name-DoB - TBD)?
-Should the RID also be considered for downloading e-UIN</t>
-  </si>
-  <si>
-    <t>Resident can download e-Aadhaar using 28 digit enrolment no. along with Full Name and Pin code. In this download process OTP is received on registered mobile no. Resident can also use TOTP to download e-Aadhaar instead of OTP. TOTP can generated using mAadhaar mobile Application.
-e-Aadhaar is a password protected electronic copy of Aadhaar, which is digitally signed by the competent Authority of UIDAI.</t>
-  </si>
-  <si>
-    <t>exact paramters needs to be known. For this the Authentication data stored by IDA needs to be known.
-Use case for an Individual to access the Auth history needs to be known, as it will help in understanding the Paramters to be displayed.</t>
+    <t>Reg proc-5(ALL )+ IDA effort</t>
+  </si>
+  <si>
+    <t>RS-10
+Reg proc-20
+Reg Proc-40(All)+ Reg Client effort</t>
+  </si>
+  <si>
+    <t>Reg Proc- 107</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,8 +846,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,8 +894,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -910,11 +1181,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1036,6 +1327,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1050,23 +1362,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="44">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1332,6 +1630,53 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1631,24 +1976,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:O13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="A2:O13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="clarifications needed" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:U16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+  <autoFilter ref="A2:U16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S. No." dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Components" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="JIRA IDs" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Feature" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Effort (PD)" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Story Title" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Acceptance Criteria" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FR/TR/NFR" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dependency" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Owner" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Comments" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{13A82E74-1308-4639-AC28-3C0C24069D1B}" name="Carifications Needed" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{864BB1C2-76FA-4C41-8AC8-BB9BAA512D84}" name="Clarification Description" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{BE9DD593-8EE7-4053-9E3C-83ECF3ACC24F}" name="Research info " dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{BA6CF5C0-D673-4221-AF2B-15571968A0FE}" name="estimate(PDs)-CUT" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{01BC0E2E-2278-4657-B425-1B825351D8EF}" name="clarifications needed" dataDxfId="21">
+      <calculatedColumnFormula>- Finger print type needed(individual fingers needed?)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{A2BAB483-8C1C-469A-95FE-F84C2AD42ACB}" name="Module Dependency" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{8032070F-A4AE-499B-8E82-1924CEADE8D6}" name="Reg Proc" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{3D38D082-6AE5-4E43-9668-964B409D450F}" name="IDA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1945,12 +2298,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8.6328125" style="4"/>
     <col min="2" max="2" width="78.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.453125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="4"/>
+    <col min="4" max="16384" width="8.6328125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2054,54 +2407,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="31"/>
-    <col min="2" max="2" width="13.54296875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="17" customWidth="1"/>
     <col min="3" max="3" width="9.453125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" style="37" customWidth="1"/>
     <col min="5" max="5" width="25" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="61.81640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="50.453125" style="17" customWidth="1"/>
     <col min="7" max="7" width="65.81640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" style="17" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="17" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="64.26953125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="56.453125" style="17" customWidth="1"/>
     <col min="13" max="13" width="12" style="17" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="48.54296875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="52.26953125" style="17" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="17"/>
+    <col min="14" max="14" width="39.453125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="34.6328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="52.36328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="24.6328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="43.1796875" style="17" customWidth="1"/>
+    <col min="19" max="19" width="23.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6328125" style="17" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:21" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-    </row>
-    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+    </row>
+    <row r="2" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -2140,58 +2503,91 @@
         <v>24</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="20"/>
-      <c r="N3" s="41" t="s">
-        <v>78</v>
+      <c r="N3" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>10</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="319" x14ac:dyDescent="0.35">
       <c r="A4" s="29">
         <v>2</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -2199,86 +2595,128 @@
       <c r="K4" s="16"/>
       <c r="L4" s="24"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="14" t="s">
-        <v>81</v>
+      <c r="N4" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>10</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="29">
         <v>3</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="14" t="s">
-        <v>57</v>
+      <c r="D5" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M5" s="20"/>
-      <c r="N5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+      <c r="N5" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>4</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="35" t="s">
-        <v>58</v>
+      <c r="D6" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M6" s="20"/>
-      <c r="N6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="231.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>5</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -2287,13 +2725,28 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
       <c r="N7" s="14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="246.5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -2304,10 +2757,10 @@
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -2315,12 +2768,24 @@
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+      <c r="N8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -2334,7 +2799,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>26</v>
@@ -2348,26 +2813,38 @@
         <v>35</v>
       </c>
       <c r="M9" s="19"/>
-      <c r="N9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+      <c r="N9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>8</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -2376,13 +2853,28 @@
       <c r="L10" s="14"/>
       <c r="M10" s="19"/>
       <c r="N10" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -2393,77 +2885,167 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="14" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="M11" s="19"/>
-      <c r="N11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
-        <v>10</v>
-      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26" t="s">
-        <v>43</v>
-      </c>
+      <c r="D12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="L12" s="14"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="N12" s="14"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="26" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="26" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="27" t="s">
-        <v>61</v>
+      <c r="L13" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="M13" s="19"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="42">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="42">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q18" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q20" s="17" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2481,46 +3063,46 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="31"/>
-    <col min="2" max="2" width="13.54296875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="17" customWidth="1"/>
     <col min="3" max="3" width="9.453125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="17" customWidth="1"/>
     <col min="5" max="5" width="14.1796875" style="17" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="61.81640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="65.81640625" style="17" customWidth="1"/>
     <col min="8" max="8" width="7.1796875" style="17" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" style="17" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.36328125" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" style="17" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="7.1796875" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="64.26953125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="64.36328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="12" style="17" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
+      <c r="A1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
@@ -2570,10 +3152,10 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>26</v>
@@ -2584,7 +3166,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M3" s="19"/>
     </row>
@@ -2602,7 +3184,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>26</v>
@@ -2629,7 +3211,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>26</v>
@@ -2655,15 +3237,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2870,6 +3443,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2897,14 +3479,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B8CA9A-DD82-42AF-8D7A-A732A1A6A7F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2923,18 +3497,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76A967A4-7A69-40CD-99BB-12B8B89CEFCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06CB389D-5099-43D5-BEEB-BE6C59A66DE6}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
